--- a/ADF daily jobs/Daily_jobs _Gantt_chart.xlsx
+++ b/ADF daily jobs/Daily_jobs _Gantt_chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zoetis-my.sharepoint.com/personal/zhan_bin_zoetis_com/Documents/桌面/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="11_F25DC773A252ABDACC104818A1D84DFA5ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B2BF38B-9323-4528-AB56-E38CABD5D909}"/>
+  <xr:revisionPtr revIDLastSave="321" documentId="11_F25DC773A252ABDACC104818A1D84DFA5ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1772C35A-3818-462E-8BA4-665DE0AA657C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18590" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,12 +380,6 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -412,6 +406,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -704,1519 +704,1643 @@
     <col min="2" max="2" width="26.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="14">
         <v>6.25E-2</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="14">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="14">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="14">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="14">
         <v>9.7222222222222224E-2</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="14">
         <v>0.10416666666666667</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="14">
         <v>0.1111111111111111</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="14">
         <v>0.11805555555555557</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="14">
         <v>0.125</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="14">
         <v>0.13194444444444445</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="14">
         <v>0.1388888888888889</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="14">
         <v>0.14583333333333334</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>8.6064814814814816E-2</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="A4" s="17"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="17"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>6.2581018518518508E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>7.4444444444444438E-2</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+      <c r="A5" s="17"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="17"/>
       <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>6.2581018518518508E-2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>0.13516203703703702</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="3"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="17"/>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="17"/>
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>6.2581018518518508E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>7.4189814814814806E-2</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="17"/>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="17"/>
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>6.2581018518518508E-2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>7.3530092592592591E-2</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="17"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="17"/>
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>6.2581018518518508E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>7.3310185185185187E-2</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="14">
         <v>0.23611111111111113</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="14">
         <v>0.24305555555555555</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="14">
         <v>0.25</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="14">
         <v>0.25694444444444448</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="14">
         <v>0.2638888888888889</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="14">
         <v>0.27083333333333331</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="14">
         <v>0.27777777777777779</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="14">
         <v>0.28472222222222221</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="14">
         <v>0.29166666666666669</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="14">
         <v>0.2986111111111111</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="14">
         <v>0.30555555555555552</v>
       </c>
-      <c r="S9" s="16">
+      <c r="S9" s="14">
         <v>0.3125</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="17" t="s">
         <v>77</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>0.24405092592592592</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="17"/>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="17"/>
       <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>0.22922453703703705</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="10">
         <v>0.24497685185185183</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="17"/>
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <v>0.24501157407407406</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>0.24881944444444445</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="A13" s="17"/>
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="17"/>
       <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <v>0.24501157407407406</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <v>0.24569444444444444</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="17"/>
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="17"/>
       <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <v>0.24501157407407406</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>0.24883101851851852</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="17"/>
       <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="17"/>
       <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <v>0.24501157407407406</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="10">
         <v>0.24855324074074073</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="17"/>
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="17"/>
       <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <v>0.24501157407407406</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <v>0.24525462962962963</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="17"/>
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="17"/>
       <c r="D17" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
         <v>0.24501157407407406</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="10">
         <v>0.24785879629629629</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="17"/>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="17"/>
       <c r="D18" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <v>0.24501157407407406</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="10">
         <v>0.24513888888888888</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="17"/>
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="17"/>
       <c r="D19" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="10">
         <v>0.24501157407407406</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="10">
         <v>0.24505787037037038</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="17"/>
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="17"/>
       <c r="D20" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <v>0.24501157407407406</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="10">
         <v>0.24547453703703703</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="17"/>
       <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="17"/>
       <c r="D21" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <v>0.24501157407407406</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="10">
         <v>0.24525462962962963</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="17"/>
       <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="17"/>
       <c r="D22" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <v>0.24501157407407406</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="10">
         <v>0.24506944444444445</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="17"/>
       <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
+      <c r="E23" s="10">
+        <v>0.24886574074074075</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.25013888888888886</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="17"/>
       <c r="B24" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="17"/>
       <c r="D24" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
+      <c r="E24" s="10">
+        <v>0.24886574074074075</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.2492824074074074</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="17"/>
       <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="17"/>
       <c r="D25" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
+      <c r="E25" s="10">
+        <v>0.24886574074074075</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0.24886574074074075</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="17"/>
       <c r="B26" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="17"/>
       <c r="D26" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
+      <c r="E26" s="10">
+        <v>0.24886574074074075</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0.24983796296296298</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="17"/>
       <c r="B27" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="17"/>
       <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
+      <c r="E27" s="10">
+        <v>0.24886574074074075</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0.24898148148148147</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="17"/>
       <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="17"/>
       <c r="D28" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
+      <c r="E28" s="10">
+        <v>0.24886574074074075</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0.24924768518518517</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="17"/>
       <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="17"/>
       <c r="D29" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
+      <c r="E29" s="10">
+        <v>0.24886574074074075</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0.24979166666666666</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="17"/>
       <c r="B30" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="17"/>
       <c r="D30" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
+      <c r="E30" s="10">
+        <v>0.24886574074074075</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0.25008101851851855</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="17"/>
       <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="17"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
+      <c r="E31" s="10">
+        <v>0.24886574074074075</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0.24921296296296294</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="17"/>
       <c r="B32" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="17"/>
       <c r="D32" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
+      <c r="E32" s="10">
+        <v>0.24886574074074075</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0.24910879629629631</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="17"/>
       <c r="B33" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="17"/>
       <c r="D33" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
+      <c r="E33" s="10">
+        <v>0.24886574074074075</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0.24918981481481484</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="17"/>
       <c r="B34" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="17"/>
       <c r="D34" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
+      <c r="E34" s="10">
+        <v>0.24886574074074075</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0.24927083333333333</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="17"/>
       <c r="B35" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="17"/>
       <c r="D35" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
+      <c r="E35" s="10">
+        <v>0.24886574074074075</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0.24910879629629631</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="17"/>
       <c r="B36" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="17"/>
       <c r="D36" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
+      <c r="E36" s="10">
+        <v>0.24886574074074075</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0.24893518518518518</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="17"/>
       <c r="B37" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="17"/>
       <c r="D37" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
+      <c r="E37" s="10">
+        <v>0.24886574074074075</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0.24892361111111114</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="17"/>
       <c r="B38" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="17"/>
       <c r="D38" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
+      <c r="E38" s="10">
+        <v>0.24892361111111114</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0.24905092592592593</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" s="17"/>
       <c r="B39" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="17" t="s">
         <v>80</v>
       </c>
       <c r="D39" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
+      <c r="E39" s="10">
+        <v>0.24886574074074075</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0.24916666666666668</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="17"/>
       <c r="B40" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="17"/>
       <c r="D40" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
+      <c r="E40" s="10">
+        <v>0.24886574074074075</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0.24894675925925927</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" s="17"/>
       <c r="B41" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="17"/>
       <c r="D41" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
+      <c r="E41" s="10">
+        <v>0.24886574074074075</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0.24898148148148147</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="17"/>
       <c r="B42" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="17"/>
       <c r="D42" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
+      <c r="E42" s="10">
+        <v>0.24886574074074075</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0.24927083333333333</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" s="17"/>
       <c r="B43" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="17" t="s">
         <v>81</v>
       </c>
       <c r="D43" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
+      <c r="E43" s="10">
+        <v>0.25091435185185185</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0.25581018518518517</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="17"/>
       <c r="B44" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="17"/>
       <c r="D44" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
+      <c r="E44" s="10">
+        <v>0.25091435185185185</v>
+      </c>
+      <c r="F44" s="10">
+        <v>0.25567129629629631</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
+      <c r="A45" s="17"/>
       <c r="B45" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="17"/>
       <c r="D45" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
+      <c r="E45" s="10">
+        <v>0.25091435185185185</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0.25716435185185188</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
+      <c r="A46" s="17"/>
       <c r="B46" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="17"/>
       <c r="D46" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
+      <c r="E46" s="10">
+        <v>0.25244212962962964</v>
+      </c>
+      <c r="F46" s="10">
+        <v>0.25511574074074073</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
+      <c r="A47" s="17"/>
       <c r="B47" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="17"/>
       <c r="D47" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
+      <c r="E47" s="10">
+        <v>0.25244212962962964</v>
+      </c>
+      <c r="F47" s="10">
+        <v>0.25511574074074073</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="17"/>
       <c r="B48" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="17"/>
       <c r="D48" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
+      <c r="E48" s="10">
+        <v>0.25091435185185185</v>
+      </c>
+      <c r="F48" s="10">
+        <v>0.25243055555555555</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+      <c r="A49" s="17"/>
       <c r="B49" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="2"/>
+      <c r="C49" s="17"/>
       <c r="D49" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
+      <c r="E49" s="10">
+        <v>0.25990740740740742</v>
+      </c>
+      <c r="F49" s="10">
+        <v>0.26108796296296294</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="17"/>
       <c r="B50" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="17"/>
       <c r="D50" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
+      <c r="E50" s="10">
+        <v>0.26109953703703703</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0.26212962962962966</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
+      <c r="A51" s="17"/>
       <c r="B51" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D51" t="s">
         <v>67</v>
       </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
+      <c r="E51" s="10">
+        <v>0.26489583333333333</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0.27966435185185184</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
+      <c r="A52" s="17"/>
       <c r="B52" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52" s="17"/>
       <c r="D52" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
+      <c r="E52" s="10">
+        <v>0.27967592592592594</v>
+      </c>
+      <c r="F52" s="10">
+        <v>0.28571759259259261</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
+      <c r="A53" s="17"/>
       <c r="B53" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="17"/>
       <c r="D53" t="s">
         <v>69</v>
       </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
+      <c r="E53" s="10">
+        <v>0.28572916666666665</v>
+      </c>
+      <c r="F53" s="10">
+        <v>0.29379629629629628</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
+      <c r="A54" s="17"/>
       <c r="B54" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D54" t="s">
         <v>70</v>
       </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
+      <c r="A55" s="17"/>
       <c r="B55" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="17"/>
       <c r="D55" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2225,12 +2349,12 @@
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A10:A55"/>
+    <mergeCell ref="C39:C42"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C22"/>
     <mergeCell ref="C23:C38"/>
-    <mergeCell ref="C39:C42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
